--- a/Meta.xlsx
+++ b/Meta.xlsx
@@ -108,12 +108,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,7 +140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -443,7 +449,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
